--- a/EDSProj/DATA/АИС_Импорт.xlsx
+++ b/EDSProj/DATA/АИС_Импорт.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="27795" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="aisImport" sheetId="1" r:id="rId1"/>
@@ -5806,16 +5806,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -24744,8 +24744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24762,8 +24762,8 @@
         <v>39479</v>
       </c>
       <c r="C1" t="str">
-        <f>"AISImort.exe " &amp; """" &amp; TEXT(A1,"ДД.ММ.ГГГГ") &amp; """ """ &amp; TEXT(B1,"ДД.ММ.ГГГГ") &amp;""""</f>
-        <v>AISImort.exe "01.01.2008" "01.02.2008"</v>
+        <f>"AISImport.exe " &amp; """" &amp; TEXT(A1,"ДД.ММ.ГГГГ") &amp; """ """ &amp; TEXT(B1,"ДД.ММ.ГГГГ") &amp;""""</f>
+        <v>AISImport.exe "01.01.2008" "01.02.2008"</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -24774,8 +24774,8 @@
         <v>39508</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f t="shared" ref="C2:C65" si="0">"AISImort.exe " &amp; """" &amp; TEXT(A2,"ДД.ММ.ГГГГ") &amp; """ """ &amp; TEXT(B2,"ДД.ММ.ГГГГ") &amp;""""</f>
-        <v>AISImort.exe "01.02.2008" "01.03.2008"</v>
+        <f t="shared" ref="C2:C65" si="0">"AISImport.exe " &amp; """" &amp; TEXT(A2,"ДД.ММ.ГГГГ") &amp; """ """ &amp; TEXT(B2,"ДД.ММ.ГГГГ") &amp;""""</f>
+        <v>AISImport.exe "01.02.2008" "01.03.2008"</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -24787,7 +24787,7 @@
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.03.2008" "01.04.2008"</v>
+        <v>AISImport.exe "01.03.2008" "01.04.2008"</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.04.2008" "01.05.2008"</v>
+        <v>AISImport.exe "01.04.2008" "01.05.2008"</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -24811,7 +24811,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.05.2008" "01.06.2008"</v>
+        <v>AISImport.exe "01.05.2008" "01.06.2008"</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24823,7 +24823,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.06.2008" "01.07.2008"</v>
+        <v>AISImport.exe "01.06.2008" "01.07.2008"</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -24835,7 +24835,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.07.2008" "01.08.2008"</v>
+        <v>AISImport.exe "01.07.2008" "01.08.2008"</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -24847,7 +24847,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.08.2008" "01.09.2008"</v>
+        <v>AISImport.exe "01.08.2008" "01.09.2008"</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.09.2008" "01.10.2008"</v>
+        <v>AISImport.exe "01.09.2008" "01.10.2008"</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.10.2008" "01.11.2008"</v>
+        <v>AISImport.exe "01.10.2008" "01.11.2008"</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -24883,7 +24883,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.11.2008" "01.12.2008"</v>
+        <v>AISImport.exe "01.11.2008" "01.12.2008"</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.12.2008" "01.01.2009"</v>
+        <v>AISImport.exe "01.12.2008" "01.01.2009"</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.01.2009" "01.02.2009"</v>
+        <v>AISImport.exe "01.01.2009" "01.02.2009"</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.02.2009" "01.03.2009"</v>
+        <v>AISImport.exe "01.02.2009" "01.03.2009"</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -24931,7 +24931,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.03.2009" "01.04.2009"</v>
+        <v>AISImport.exe "01.03.2009" "01.04.2009"</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -24943,7 +24943,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.04.2009" "01.05.2009"</v>
+        <v>AISImport.exe "01.04.2009" "01.05.2009"</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.05.2009" "01.06.2009"</v>
+        <v>AISImport.exe "01.05.2009" "01.06.2009"</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -24967,7 +24967,7 @@
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.06.2009" "01.07.2009"</v>
+        <v>AISImport.exe "01.06.2009" "01.07.2009"</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -24979,7 +24979,7 @@
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.07.2009" "01.08.2009"</v>
+        <v>AISImport.exe "01.07.2009" "01.08.2009"</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -24991,7 +24991,7 @@
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.08.2009" "01.09.2009"</v>
+        <v>AISImport.exe "01.08.2009" "01.09.2009"</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.09.2009" "01.10.2009"</v>
+        <v>AISImport.exe "01.09.2009" "01.10.2009"</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.10.2009" "01.11.2009"</v>
+        <v>AISImport.exe "01.10.2009" "01.11.2009"</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -25027,7 +25027,7 @@
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.11.2009" "01.12.2009"</v>
+        <v>AISImport.exe "01.11.2009" "01.12.2009"</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -25039,7 +25039,7 @@
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.12.2009" "01.01.2010"</v>
+        <v>AISImport.exe "01.12.2009" "01.01.2010"</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -25051,7 +25051,7 @@
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.01.2010" "01.02.2010"</v>
+        <v>AISImport.exe "01.01.2010" "01.02.2010"</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -25063,7 +25063,7 @@
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.02.2010" "01.03.2010"</v>
+        <v>AISImport.exe "01.02.2010" "01.03.2010"</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -25075,7 +25075,7 @@
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.03.2010" "01.04.2010"</v>
+        <v>AISImport.exe "01.03.2010" "01.04.2010"</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -25087,7 +25087,7 @@
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.04.2010" "01.05.2010"</v>
+        <v>AISImport.exe "01.04.2010" "01.05.2010"</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -25099,7 +25099,7 @@
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.05.2010" "01.06.2010"</v>
+        <v>AISImport.exe "01.05.2010" "01.06.2010"</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -25111,7 +25111,7 @@
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.06.2010" "01.07.2010"</v>
+        <v>AISImport.exe "01.06.2010" "01.07.2010"</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -25123,7 +25123,7 @@
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.07.2010" "01.08.2010"</v>
+        <v>AISImport.exe "01.07.2010" "01.08.2010"</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.08.2010" "01.09.2010"</v>
+        <v>AISImport.exe "01.08.2010" "01.09.2010"</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -25147,7 +25147,7 @@
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.09.2010" "01.10.2010"</v>
+        <v>AISImport.exe "01.09.2010" "01.10.2010"</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.10.2010" "01.11.2010"</v>
+        <v>AISImport.exe "01.10.2010" "01.11.2010"</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.11.2010" "01.12.2010"</v>
+        <v>AISImport.exe "01.11.2010" "01.12.2010"</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -25183,7 +25183,7 @@
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.12.2010" "01.01.2011"</v>
+        <v>AISImport.exe "01.12.2010" "01.01.2011"</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -25195,7 +25195,7 @@
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.01.2011" "01.02.2011"</v>
+        <v>AISImport.exe "01.01.2011" "01.02.2011"</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -25207,7 +25207,7 @@
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.02.2011" "01.03.2011"</v>
+        <v>AISImport.exe "01.02.2011" "01.03.2011"</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.03.2011" "01.04.2011"</v>
+        <v>AISImport.exe "01.03.2011" "01.04.2011"</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -25231,7 +25231,7 @@
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.04.2011" "01.05.2011"</v>
+        <v>AISImport.exe "01.04.2011" "01.05.2011"</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -25243,7 +25243,7 @@
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.05.2011" "01.06.2011"</v>
+        <v>AISImport.exe "01.05.2011" "01.06.2011"</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.06.2011" "01.07.2011"</v>
+        <v>AISImport.exe "01.06.2011" "01.07.2011"</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -25267,7 +25267,7 @@
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.07.2011" "01.08.2011"</v>
+        <v>AISImport.exe "01.07.2011" "01.08.2011"</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -25279,7 +25279,7 @@
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.08.2011" "01.09.2011"</v>
+        <v>AISImport.exe "01.08.2011" "01.09.2011"</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -25291,7 +25291,7 @@
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.09.2011" "01.10.2011"</v>
+        <v>AISImport.exe "01.09.2011" "01.10.2011"</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -25303,7 +25303,7 @@
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.10.2011" "01.11.2011"</v>
+        <v>AISImport.exe "01.10.2011" "01.11.2011"</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -25315,7 +25315,7 @@
       </c>
       <c r="C47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.11.2011" "01.12.2011"</v>
+        <v>AISImport.exe "01.11.2011" "01.12.2011"</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -25327,7 +25327,7 @@
       </c>
       <c r="C48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.12.2011" "01.01.2012"</v>
+        <v>AISImport.exe "01.12.2011" "01.01.2012"</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.01.2012" "01.02.2012"</v>
+        <v>AISImport.exe "01.01.2012" "01.02.2012"</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -25351,7 +25351,7 @@
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.02.2012" "01.03.2012"</v>
+        <v>AISImport.exe "01.02.2012" "01.03.2012"</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.03.2012" "01.04.2012"</v>
+        <v>AISImport.exe "01.03.2012" "01.04.2012"</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -25375,7 +25375,7 @@
       </c>
       <c r="C52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.04.2012" "01.05.2012"</v>
+        <v>AISImport.exe "01.04.2012" "01.05.2012"</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -25387,7 +25387,7 @@
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.05.2012" "01.06.2012"</v>
+        <v>AISImport.exe "01.05.2012" "01.06.2012"</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -25399,7 +25399,7 @@
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.06.2012" "01.07.2012"</v>
+        <v>AISImport.exe "01.06.2012" "01.07.2012"</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -25411,7 +25411,7 @@
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.07.2012" "01.08.2012"</v>
+        <v>AISImport.exe "01.07.2012" "01.08.2012"</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -25423,7 +25423,7 @@
       </c>
       <c r="C56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.08.2012" "01.09.2012"</v>
+        <v>AISImport.exe "01.08.2012" "01.09.2012"</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="C57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.09.2012" "01.10.2012"</v>
+        <v>AISImport.exe "01.09.2012" "01.10.2012"</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="C58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.10.2012" "01.11.2012"</v>
+        <v>AISImport.exe "01.10.2012" "01.11.2012"</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -25459,7 +25459,7 @@
       </c>
       <c r="C59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.11.2012" "01.12.2012"</v>
+        <v>AISImport.exe "01.11.2012" "01.12.2012"</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -25471,7 +25471,7 @@
       </c>
       <c r="C60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.12.2012" "01.01.2013"</v>
+        <v>AISImport.exe "01.12.2012" "01.01.2013"</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="C61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.01.2013" "01.02.2013"</v>
+        <v>AISImport.exe "01.01.2013" "01.02.2013"</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -25495,7 +25495,7 @@
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.02.2013" "01.03.2013"</v>
+        <v>AISImport.exe "01.02.2013" "01.03.2013"</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -25507,7 +25507,7 @@
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.03.2013" "01.04.2013"</v>
+        <v>AISImport.exe "01.03.2013" "01.04.2013"</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -25519,7 +25519,7 @@
       </c>
       <c r="C64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.04.2013" "01.05.2013"</v>
+        <v>AISImport.exe "01.04.2013" "01.05.2013"</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -25531,7 +25531,7 @@
       </c>
       <c r="C65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>AISImort.exe "01.05.2013" "01.06.2013"</v>
+        <v>AISImport.exe "01.05.2013" "01.06.2013"</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -25542,8 +25542,8 @@
         <v>41456</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f t="shared" ref="C66:C119" si="1">"AISImort.exe " &amp; """" &amp; TEXT(A66,"ДД.ММ.ГГГГ") &amp; """ """ &amp; TEXT(B66,"ДД.ММ.ГГГГ") &amp;""""</f>
-        <v>AISImort.exe "01.06.2013" "01.07.2013"</v>
+        <f t="shared" ref="C66:C119" si="1">"AISImport.exe " &amp; """" &amp; TEXT(A66,"ДД.ММ.ГГГГ") &amp; """ """ &amp; TEXT(B66,"ДД.ММ.ГГГГ") &amp;""""</f>
+        <v>AISImport.exe "01.06.2013" "01.07.2013"</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="C67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.07.2013" "01.08.2013"</v>
+        <v>AISImport.exe "01.07.2013" "01.08.2013"</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -25567,7 +25567,7 @@
       </c>
       <c r="C68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.08.2013" "01.09.2013"</v>
+        <v>AISImport.exe "01.08.2013" "01.09.2013"</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="C69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.09.2013" "01.10.2013"</v>
+        <v>AISImport.exe "01.09.2013" "01.10.2013"</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="C70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.10.2013" "01.11.2013"</v>
+        <v>AISImport.exe "01.10.2013" "01.11.2013"</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -25603,7 +25603,7 @@
       </c>
       <c r="C71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.11.2013" "01.12.2013"</v>
+        <v>AISImport.exe "01.11.2013" "01.12.2013"</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="C72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.12.2013" "01.01.2014"</v>
+        <v>AISImport.exe "01.12.2013" "01.01.2014"</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -25627,7 +25627,7 @@
       </c>
       <c r="C73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.01.2014" "01.02.2014"</v>
+        <v>AISImport.exe "01.01.2014" "01.02.2014"</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -25639,7 +25639,7 @@
       </c>
       <c r="C74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.02.2014" "01.03.2014"</v>
+        <v>AISImport.exe "01.02.2014" "01.03.2014"</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -25651,7 +25651,7 @@
       </c>
       <c r="C75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.03.2014" "01.04.2014"</v>
+        <v>AISImport.exe "01.03.2014" "01.04.2014"</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -25663,7 +25663,7 @@
       </c>
       <c r="C76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.04.2014" "01.05.2014"</v>
+        <v>AISImport.exe "01.04.2014" "01.05.2014"</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="C77" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.05.2014" "01.06.2014"</v>
+        <v>AISImport.exe "01.05.2014" "01.06.2014"</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -25687,7 +25687,7 @@
       </c>
       <c r="C78" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.06.2014" "01.07.2014"</v>
+        <v>AISImport.exe "01.06.2014" "01.07.2014"</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -25699,7 +25699,7 @@
       </c>
       <c r="C79" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.07.2014" "01.08.2014"</v>
+        <v>AISImport.exe "01.07.2014" "01.08.2014"</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -25711,7 +25711,7 @@
       </c>
       <c r="C80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.08.2014" "01.09.2014"</v>
+        <v>AISImport.exe "01.08.2014" "01.09.2014"</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -25723,7 +25723,7 @@
       </c>
       <c r="C81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.09.2014" "01.10.2014"</v>
+        <v>AISImport.exe "01.09.2014" "01.10.2014"</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -25735,7 +25735,7 @@
       </c>
       <c r="C82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.10.2014" "01.11.2014"</v>
+        <v>AISImport.exe "01.10.2014" "01.11.2014"</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="C83" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.11.2014" "01.12.2014"</v>
+        <v>AISImport.exe "01.11.2014" "01.12.2014"</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -25759,7 +25759,7 @@
       </c>
       <c r="C84" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.12.2014" "01.01.2015"</v>
+        <v>AISImport.exe "01.12.2014" "01.01.2015"</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -25771,7 +25771,7 @@
       </c>
       <c r="C85" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.01.2015" "01.02.2015"</v>
+        <v>AISImport.exe "01.01.2015" "01.02.2015"</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -25783,7 +25783,7 @@
       </c>
       <c r="C86" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.02.2015" "01.03.2015"</v>
+        <v>AISImport.exe "01.02.2015" "01.03.2015"</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.03.2015" "01.04.2015"</v>
+        <v>AISImport.exe "01.03.2015" "01.04.2015"</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -25807,7 +25807,7 @@
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.04.2015" "01.05.2015"</v>
+        <v>AISImport.exe "01.04.2015" "01.05.2015"</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -25819,7 +25819,7 @@
       </c>
       <c r="C89" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.05.2015" "01.06.2015"</v>
+        <v>AISImport.exe "01.05.2015" "01.06.2015"</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.06.2015" "01.07.2015"</v>
+        <v>AISImport.exe "01.06.2015" "01.07.2015"</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="C91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.07.2015" "01.08.2015"</v>
+        <v>AISImport.exe "01.07.2015" "01.08.2015"</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -25855,7 +25855,7 @@
       </c>
       <c r="C92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.08.2015" "01.09.2015"</v>
+        <v>AISImport.exe "01.08.2015" "01.09.2015"</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -25867,7 +25867,7 @@
       </c>
       <c r="C93" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.09.2015" "01.10.2015"</v>
+        <v>AISImport.exe "01.09.2015" "01.10.2015"</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.10.2015" "01.11.2015"</v>
+        <v>AISImport.exe "01.10.2015" "01.11.2015"</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -25891,7 +25891,7 @@
       </c>
       <c r="C95" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.11.2015" "01.12.2015"</v>
+        <v>AISImport.exe "01.11.2015" "01.12.2015"</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="C96" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.12.2015" "01.01.2016"</v>
+        <v>AISImport.exe "01.12.2015" "01.01.2016"</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -25915,7 +25915,7 @@
       </c>
       <c r="C97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.01.2016" "01.02.2016"</v>
+        <v>AISImport.exe "01.01.2016" "01.02.2016"</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -25927,7 +25927,7 @@
       </c>
       <c r="C98" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.02.2016" "01.03.2016"</v>
+        <v>AISImport.exe "01.02.2016" "01.03.2016"</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="C99" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.03.2016" "01.04.2016"</v>
+        <v>AISImport.exe "01.03.2016" "01.04.2016"</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -25951,7 +25951,7 @@
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.04.2016" "01.05.2016"</v>
+        <v>AISImport.exe "01.04.2016" "01.05.2016"</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="C101" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.05.2016" "01.06.2016"</v>
+        <v>AISImport.exe "01.05.2016" "01.06.2016"</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.06.2016" "01.07.2016"</v>
+        <v>AISImport.exe "01.06.2016" "01.07.2016"</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -25987,7 +25987,7 @@
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.07.2016" "01.08.2016"</v>
+        <v>AISImport.exe "01.07.2016" "01.08.2016"</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -25999,7 +25999,7 @@
       </c>
       <c r="C104" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.08.2016" "01.09.2016"</v>
+        <v>AISImport.exe "01.08.2016" "01.09.2016"</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -26011,7 +26011,7 @@
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.09.2016" "01.10.2016"</v>
+        <v>AISImport.exe "01.09.2016" "01.10.2016"</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -26023,7 +26023,7 @@
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.10.2016" "01.11.2016"</v>
+        <v>AISImport.exe "01.10.2016" "01.11.2016"</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -26035,7 +26035,7 @@
       </c>
       <c r="C107" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.11.2016" "01.12.2016"</v>
+        <v>AISImport.exe "01.11.2016" "01.12.2016"</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.12.2016" "01.01.2017"</v>
+        <v>AISImport.exe "01.12.2016" "01.01.2017"</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -26059,7 +26059,7 @@
       </c>
       <c r="C109" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.01.2017" "01.02.2017"</v>
+        <v>AISImport.exe "01.01.2017" "01.02.2017"</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -26071,7 +26071,7 @@
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.02.2017" "01.03.2017"</v>
+        <v>AISImport.exe "01.02.2017" "01.03.2017"</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.03.2017" "01.04.2017"</v>
+        <v>AISImport.exe "01.03.2017" "01.04.2017"</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.04.2017" "01.05.2017"</v>
+        <v>AISImport.exe "01.04.2017" "01.05.2017"</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -26107,7 +26107,7 @@
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.05.2017" "01.06.2017"</v>
+        <v>AISImport.exe "01.05.2017" "01.06.2017"</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -26119,7 +26119,7 @@
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.06.2017" "01.07.2017"</v>
+        <v>AISImport.exe "01.06.2017" "01.07.2017"</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="C115" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.07.2017" "01.08.2017"</v>
+        <v>AISImport.exe "01.07.2017" "01.08.2017"</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -26143,7 +26143,7 @@
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.08.2017" "01.09.2017"</v>
+        <v>AISImport.exe "01.08.2017" "01.09.2017"</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -26155,7 +26155,7 @@
       </c>
       <c r="C117" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.09.2017" "01.10.2017"</v>
+        <v>AISImport.exe "01.09.2017" "01.10.2017"</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -26167,7 +26167,7 @@
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.10.2017" "01.11.2017"</v>
+        <v>AISImport.exe "01.10.2017" "01.11.2017"</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="C119" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>AISImort.exe "01.11.2017" "01.12.2017"</v>
+        <v>AISImport.exe "01.11.2017" "01.12.2017"</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">

--- a/EDSProj/DATA/АИС_Импорт.xlsx
+++ b/EDSProj/DATA/АИС_Импорт.xlsx
@@ -4741,9 +4741,6 @@
     <t>4443-1</t>
   </si>
   <si>
-    <t>4414-1</t>
-  </si>
-  <si>
     <t>4402-1</t>
   </si>
   <si>
@@ -4919,6 +4916,9 @@
   </si>
   <si>
     <t>1-275</t>
+  </si>
+  <si>
+    <t>4417-1</t>
   </si>
 </sst>
 </file>
@@ -5806,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10726,11 +10726,11 @@
         <v>8739-20:КРУ-2:03 28T (A+)</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1574</v>
+        <v>1633</v>
       </c>
       <c r="F226" s="1" t="str">
         <f>VLOOKUP(E226,ais_new!$D$2:$E$389,2,FALSE)</f>
-        <v>4414-1:Возбуждение Г/А 8 (А+)</v>
+        <v>4417-1:Трансформатор 28Т КРУ-2 (А+)</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -10748,7 +10748,7 @@
         <v>8740-47:КРУ-3:03 29Т (A+)</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F227" s="1" t="str">
         <f>VLOOKUP(E227,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10770,7 +10770,7 @@
         <v>8739-19:КРУ-2:09 30Т (А+)</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F228" s="1" t="str">
         <f>VLOOKUP(E228,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10792,7 +10792,7 @@
         <v>8739-13:КРУ-1:05 31Т (A+)</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="F229" s="1" t="str">
         <f>VLOOKUP(E229,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10836,7 +10836,7 @@
         <v>8739-21:КРУ-1:03 33Т (A+)</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F231" s="1" t="str">
         <f>VLOOKUP(E231,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10858,7 +10858,7 @@
         <v>8740-53:КРУ-3:09 34Т (A+)</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F232" s="1" t="str">
         <f>VLOOKUP(E232,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10880,7 +10880,7 @@
         <v>8739-27:КРУ-1:08 35Т (A+)</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F233" s="1" t="str">
         <f>VLOOKUP(E233,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10902,7 +10902,7 @@
         <v>8739-16:КРУ-2:08 36T (A+)</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="F234" s="1" t="str">
         <f>VLOOKUP(E234,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10924,7 +10924,7 @@
         <v>8739-18:КРУ-1:09 37Т (A+)</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="F235" s="1" t="str">
         <f>VLOOKUP(E235,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10946,7 +10946,7 @@
         <v>8739-24:КРУ-2:07 38T (A+)</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="F236" s="1" t="str">
         <f>VLOOKUP(E236,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10968,7 +10968,7 @@
         <v>8740-25:4Т 220 [A+]</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="F237" s="1" t="str">
         <f>VLOOKUP(E237,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -10990,7 +10990,7 @@
         <v>8740-26:4Т 220 [A-]</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F238" s="1" t="str">
         <f>VLOOKUP(E238,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11012,7 +11012,7 @@
         <v>8740-27:4Т 220 [R+]</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="F239" s="1" t="str">
         <f>VLOOKUP(E239,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11034,7 +11034,7 @@
         <v>8740-28:4Т 220 [R-]</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="F240" s="1" t="str">
         <f>VLOOKUP(E240,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11056,7 +11056,7 @@
         <v>8739-37:7Т (A+)</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="F241" s="1" t="str">
         <f>VLOOKUP(E241,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11078,7 +11078,7 @@
         <v>8740-33:8Т (A+)</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="F242" s="1" t="str">
         <f>VLOOKUP(E242,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11100,7 +11100,7 @@
         <v>8740-57:9Т (А+)</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F243" s="1" t="str">
         <f>VLOOKUP(E243,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11122,7 +11122,7 @@
         <v>8739-11:КРУ-2:05 ТВИ (A+)</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F244" s="1" t="str">
         <f>VLOOKUP(E244,ais_new!$D$2:$E$389,2,FALSE)</f>
@@ -11131,156 +11131,156 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
   </sheetData>
@@ -17335,8 +17335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E389"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C389"/>
+    <sheetView topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="F329" sqref="F329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EDSProj/DATA/АИС_Импорт.xlsx
+++ b/EDSProj/DATA/АИС_Импорт.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1658">
   <si>
     <t>Автотрансформатор 2АТГ 220 кВ A- (30 мин)</t>
   </si>
@@ -4919,6 +4919,78 @@
   </si>
   <si>
     <t>4417-1</t>
+  </si>
+  <si>
+    <t>Выработка</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>ГТП-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>ГТП-2</t>
+  </si>
+  <si>
+    <t>0-24</t>
+  </si>
+  <si>
+    <t>Небаланс ГЭС</t>
+  </si>
+  <si>
+    <t>СН</t>
+  </si>
+  <si>
+    <t>0-14</t>
+  </si>
+  <si>
+    <t>0-68</t>
+  </si>
+  <si>
+    <t>СП</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-65</t>
+  </si>
+  <si>
+    <t>0-51</t>
+  </si>
+  <si>
+    <t>0-35</t>
+  </si>
+  <si>
+    <t>0-36</t>
+  </si>
+  <si>
+    <t>0-52</t>
+  </si>
+  <si>
+    <t>AIS_VYR_GES.EDS@CALC</t>
+  </si>
+  <si>
+    <t>AIS_VYR_GTP1.EDS@CALC</t>
+  </si>
+  <si>
+    <t>AIS_VYR_GTP2.EDS@CALC</t>
+  </si>
+  <si>
+    <t>AIS_SP.EDS@CALC</t>
+  </si>
+  <si>
+    <t>AIS_SN.EDS@CALC</t>
+  </si>
+  <si>
+    <t>AIS_NEBALANS.EDS@CALC</t>
   </si>
 </sst>
 </file>
@@ -5804,18 +5876,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="H210" sqref="H210"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -11261,7 +11333,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1613</v>
       </c>
@@ -11272,7 +11344,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1618</v>
       </c>
@@ -11282,6 +11354,104 @@
       <c r="C258" s="1" t="s">
         <v>1629</v>
       </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F262" s="5"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F263" s="5"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C267" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11292,7 +11462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A265" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -17335,7 +17505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E389"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
+    <sheetView topLeftCell="A355" workbookViewId="0">
       <selection activeCell="F329" sqref="F329"/>
     </sheetView>
   </sheetViews>
